--- a/data/output/FV2410_FV2404/UTILMD/44014.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44014.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10106" uniqueCount="710">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10127" uniqueCount="710">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2254,6 +2254,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U437" totalsRowShown="0">
+  <autoFilter ref="A1:U437"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2543,7 +2573,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23957,5 +23990,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44014.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44014.xlsx
@@ -3945,7 +3945,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6259,7 +6259,7 @@
         <v>665</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6479,7 +6479,7 @@
         <v>666</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6699,7 +6699,7 @@
         <v>667</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -6919,7 +6919,7 @@
         <v>668</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -7521,7 +7521,7 @@
         <v>670</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7741,7 +7741,7 @@
         <v>671</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7961,7 +7961,7 @@
         <v>672</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8119,7 +8119,7 @@
         <v>673</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8923,7 +8923,7 @@
         <v>677</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -9629,7 +9629,7 @@
         <v>678</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -10207,7 +10207,7 @@
         <v>680</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -10469,7 +10469,7 @@
         <v>682</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -10731,7 +10731,7 @@
         <v>684</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -11125,7 +11125,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11873,7 +11873,7 @@
         <v>677</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -13341,7 +13341,7 @@
         <v>687</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -13753,7 +13753,7 @@
         <v>688</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -14741,7 +14741,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -15143,7 +15143,7 @@
         <v>692</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16321,7 +16321,7 @@
         <v>694</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -16469,7 +16469,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16627,7 +16627,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -18593,7 +18593,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18895,7 +18895,7 @@
         <v>695</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19347,7 +19347,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -19503,7 +19503,7 @@
         <v>695</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -19805,7 +19805,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20109,7 +20109,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20319,7 +20319,7 @@
         <v>696</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -20469,7 +20469,7 @@
         <v>697</v>
       </c>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -20687,7 +20687,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -21067,7 +21067,7 @@
         <v>700</v>
       </c>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -21479,7 +21479,7 @@
         <v>700</v>
       </c>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -21837,7 +21837,7 @@
         <v>701</v>
       </c>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -22037,7 +22037,7 @@
         <v>702</v>
       </c>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22485,7 +22485,7 @@
       </c>
       <c r="K359" s="2"/>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -22643,7 +22643,7 @@
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -23015,7 +23015,7 @@
         <v>695</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -23465,7 +23465,7 @@
         <v>704</v>
       </c>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -23609,7 +23609,7 @@
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -24075,7 +24075,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -24497,7 +24497,7 @@
         <v>706</v>
       </c>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -24809,7 +24809,7 @@
         <v>707</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -25757,7 +25757,7 @@
         <v>710</v>
       </c>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -26291,7 +26291,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -26451,7 +26451,7 @@
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N435" s="2"/>
